--- a/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
+++ b/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Informal meeting 2nd</t>
+  </si>
+  <si>
+    <t>SRS draft preperation</t>
+  </si>
+  <si>
+    <t>Ant tool research for build file</t>
   </si>
 </sst>
 </file>
@@ -454,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +554,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" ref="G8:G10" si="0">(F8-E8)</f>
+        <f t="shared" ref="G8:G11" si="0">(F8-E8)</f>
         <v>1.388888888888884E-2</v>
       </c>
     </row>
@@ -589,18 +595,40 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42967</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="5">
+        <f>(F11-E11)</f>
+        <v>0.16666666666666669</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42967</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G12" s="5">
+        <f>(F12-E12)</f>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
@@ -660,7 +688,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="6">
         <f>SUM(G7:G19)</f>
-        <v>0.2847222222222221</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
+++ b/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
@@ -81,9 +81,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +140,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,8 +533,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G7" s="6">
-        <f>(F7-E7)</f>
-        <v>0.10416666666666663</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -554,8 +550,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" ref="G8:G11" si="0">(F8-E8)</f>
-        <v>1.388888888888884E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -572,8 +567,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G9" s="6">
-        <f>(F9-E9)</f>
-        <v>0.10416666666666663</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -590,8 +584,7 @@
         <v>0.6875</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,9 +600,8 @@
       <c r="F11" s="5">
         <v>0.5</v>
       </c>
-      <c r="G11" s="5">
-        <f>(F11-E11)</f>
-        <v>0.16666666666666669</v>
+      <c r="G11" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,9 +617,8 @@
       <c r="F12" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G12" s="5">
-        <f>(F12-E12)</f>
-        <v>6.25E-2</v>
+      <c r="G12" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -687,8 +678,8 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="6">
-        <f>SUM(G7:G19)</f>
-        <v>0.51388888888888884</v>
+        <f>SUM(G7:G12)</f>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
+++ b/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Adelaide\2017-S2-SEP-PG29\Documentation\TimeSheets\week4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Adelaide - Source Code\2017-S2-SEP-PG29\Documentation\TimeSheets\week4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,14 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,72 +466,75 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>42961</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>42961</v>
       </c>
       <c r="E7" s="5">
@@ -537,10 +548,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>42962</v>
       </c>
       <c r="E8" s="5">
@@ -554,10 +565,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>42965</v>
       </c>
       <c r="E9" s="5">
@@ -571,10 +582,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>42965</v>
       </c>
       <c r="E10" s="5">
@@ -588,10 +599,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>42967</v>
       </c>
       <c r="E11" s="5">
@@ -605,10 +616,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>42967</v>
       </c>
       <c r="E12" s="5">
@@ -622,61 +633,61 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="6">
         <f>SUM(G7:G12)</f>
         <v>11.5</v>

--- a/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
+++ b/Documentation/TimeSheets/week4/HuyNguyen_timesheet_wk4.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +56,6 @@
     <t>Client Meeting</t>
   </si>
   <si>
-    <t>Huy Nguyen</t>
-  </si>
-  <si>
     <t>Team Meeting Minute</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Ant tool research for build file</t>
+  </si>
+  <si>
+    <t>Huy Nguyen Phan</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -149,6 +149,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +467,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,8 +494,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -532,7 +533,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>42961</v>
@@ -566,7 +567,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>42965</v>
@@ -583,7 +584,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>42965</v>
@@ -600,7 +601,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>42967</v>
@@ -617,7 +618,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <v>42967</v>
@@ -683,7 +684,7 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="7"/>
